--- a/StudentUpload.xlsx
+++ b/StudentUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExamSGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C0AAC-67C8-4F5B-B839-A7016A3413E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB854F-1FC1-4752-A4FA-0AF39818690A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE088CB5-2602-4700-BB34-C6E88D28D567}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>#</t>
   </si>
   <si>
-    <t>17it051@charusat.edu.in</t>
-  </si>
-  <si>
     <t>Mann</t>
   </si>
   <si>
     <t>Mehta</t>
+  </si>
+  <si>
+    <t>mannmehta2199@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
